--- a/src/main/resources/spreadsheet2templatePath.xlsx
+++ b/src/main/resources/spreadsheet2templatePath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ycao77/bmir-radx/radx-rad-metadata-compiler/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C431EE-F9EC-F040-BC74-C059197151D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEE1853-90C0-B44B-891E-7682F17B2E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="1100" windowWidth="27640" windowHeight="19560" xr2:uid="{297628F6-E04B-2149-A12F-46F8E7030659}"/>
+    <workbookView xWindow="-15760" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{297628F6-E04B-2149-A12F-46F8E7030659}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9FA6C8-3052-4F44-924C-F8A85A6A2B10}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,7 +725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>

--- a/src/main/resources/spreadsheet2templatePath.xlsx
+++ b/src/main/resources/spreadsheet2templatePath.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ycao77/bmir-radx/radx-rad-metadata-compiler/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEE1853-90C0-B44B-891E-7682F17B2E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E968A9-0673-6A49-857F-C27E5B02290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15760" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{297628F6-E04B-2149-A12F-46F8E7030659}"/>
   </bookViews>
@@ -273,25 +273,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -313,24 +300,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +649,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,10 +659,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -689,7 +670,7 @@
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -697,7 +678,7 @@
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -705,7 +686,7 @@
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -713,7 +694,7 @@
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -721,7 +702,7 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -729,7 +710,7 @@
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -737,7 +718,7 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -745,7 +726,7 @@
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -753,7 +734,7 @@
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -761,7 +742,7 @@
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -769,143 +750,143 @@
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -913,63 +894,63 @@
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="5" t="s">
         <v>61</v>
       </c>
     </row>
